--- a/Data-Analysis/10-fires-aco-ant.xlsx
+++ b/Data-Analysis/10-fires-aco-ant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e4b9ad30e75dec31/Courses/Documents/Github-Files/aco-dronefirefighting-project/Data-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_EB9C722280F3D30914C2DEE8CB4FFF29CDB8E688" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8984EDA6-34D3-4C8F-A283-1EE23D38E495}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_EB9C722280F3D30914C2DEE8CB4FFF29CDB8E688" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B9EDB2F-005D-4737-8E2B-7EC15723BFE0}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1118,7 +1118,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="H4" sqref="H3:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
